--- a/apps/features/backlog/iPhone/ad_blocking_ server/ad_blocking_ server.xlsx
+++ b/apps/features/backlog/iPhone/ad_blocking_ server/ad_blocking_ server.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\exec\symlex_vpn_ android\ad_blocking_ server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\iPhone\ad_blocking_ server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC16F66-D274-4B1D-804B-BECE3EC3E69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80491FA-E490-40F4-9D18-40F6C9250D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Prerequisites</t>
   </si>
@@ -66,10 +66,6 @@
     <t>check ad blocking consistency</t>
   </si>
   <si>
-    <t>ad blocking should be consistently applied across 
-different servers</t>
-  </si>
-  <si>
     <t>check the impact on page load time</t>
   </si>
   <si>
@@ -92,9 +88,6 @@
   </si>
   <si>
     <t>check ad blocking on different browsers</t>
-  </si>
-  <si>
-    <t>check ad blocking on mobile devices</t>
   </si>
   <si>
     <t>should confirm that the ad-blocking feature is 
@@ -133,102 +126,6 @@
 is consistent across various browsers</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to check the visibility of ad blocking servers</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to check the dynamic ad blocking</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to connect to multiple servers from the "ad blocking server" list</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to measure the impact of ad blocking on the overall page load time</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to check if the user interface provides information about the ad-blocking status when connected to an "ad blocking server."</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to check if the application allows users to customize ad-blocking settings (e.g., whitelist certain domains)</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to test the ad-blocking servers with different web browsers (e.g., Chrome, Firefox)</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to check ad blocking on mobile devices</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to Connect to an "ad blocking server" and visit websites known for displaying ads</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to test ad-blocking with various ad formats, including banners, pop-ups, and video ads</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to test the ad-blocking servers with websites using https</t>
-  </si>
-  <si>
-    <t>1. go to the google app store and install symlexvpn on your device
-2. open the symlexvpn application once it's installed.
-3. login with credentials
-4. tap the login button
-5. navigate to the server list page..
-6. try to simulate a high number of users connecting to ad-blocking servers simultaneously</t>
-  </si>
-  <si>
     <t>test Case ID</t>
   </si>
   <si>
@@ -247,7 +144,97 @@
     <t>try to see ads on server no.1 for ad-blocking servers with the https://bangla.bdnews24.com/ news website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>try to see ads the server no.1 for ads blocking server with the  prothomalo.com news website</t>
+  </si>
+  <si>
+    <t>try to see ads the server no.1 for ads blocking server with the cricinfo.com news website</t>
+  </si>
+  <si>
+    <t>try to see ads the server no.2 for ads blocking server with bangla.bdnew24.com news website</t>
+  </si>
+  <si>
+    <t>try to see ads the server no.2 for ads blocking server with prothomalo.com news website</t>
+  </si>
+  <si>
+    <t>try to see ads the server no.2 for ads blocking server with cricinfo.com news website</t>
+  </si>
+  <si>
+    <t>try to see ads the server no.3 for ads blocking server with bangla.bdnew24.com news website</t>
+  </si>
+  <si>
+    <t>try to see ads the server no.3 for ads blocking server with prothomalo.com news website</t>
+  </si>
+  <si>
+    <t>try to see ads the server no.3 for ads blocking server with cricinfo.com news website</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_001</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_002</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_003</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_004</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_005</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_006</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_007</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_008</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_009</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_010</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_011</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_012</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_013</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_014</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_015</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_016</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_017</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_018</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_019</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_020</t>
+  </si>
+  <si>
+    <t>TC_SYM_ABS_021</t>
+  </si>
+  <si>
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. login with credentials
 4. tap the login button
@@ -257,7 +244,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. login with credentials
 4. tap the login button
@@ -267,7 +254,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. login with credentials
 4. tap the login button
@@ -277,7 +264,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. login with credentials
 4. tap the login button
@@ -287,7 +274,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. login with credentials
 4. tap the login button
@@ -297,7 +284,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. login with credentials
 4. tap the login button
@@ -307,7 +294,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. login with credentials
 4. tap the login button
@@ -317,7 +304,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. Enter your password in the password field.
 4. tap the login button
@@ -327,7 +314,7 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>1. go to the google app store and install symlexvpn on your device
+    <t>1. go to the google play store and install symlexvpn on your device
 2. open the symlexvpn application once it's installed.
 3. Enter your password in the password field.
 4. tap the login button
@@ -337,94 +324,137 @@
 8. start browsing the website.</t>
   </si>
   <si>
-    <t>tC_sYM_abs_001</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to check the visibility of ad blocking servers</t>
   </si>
   <si>
-    <t>tC_sYM_abs_002</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to connect to multiple servers from the "ad blocking server" list</t>
   </si>
   <si>
-    <t>try to see ads the server no.1 for ads blocking server with the  prothomalo.com news website</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to measure the impact of ad blocking on the overall page load time</t>
   </si>
   <si>
-    <t>tC_sYM_abs_003</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to check if the user interface provides information about the ad-blocking status when connected to an "ad blocking server."</t>
   </si>
   <si>
-    <t>try to see ads the server no.1 for ads blocking server with the cricinfo.com news website</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to check if the application allows users to customize ad-blocking settings (e.g., whitelist certain domains)</t>
   </si>
   <si>
-    <t>tC_sYM_abs_004</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to test the ad-blocking servers with different web browsers (e.g., Chrome, Firefox)</t>
   </si>
   <si>
-    <t>try to see ads the server no.2 for ads blocking server with bangla.bdnew24.com news website</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to test ad-blocking with various ad formats, including banners, pop-ups, and video ads</t>
   </si>
   <si>
-    <t>tC_sYM_abs_005</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to test the ad-blocking servers with websites using https</t>
   </si>
   <si>
-    <t>try to see ads the server no.2 for ads blocking server with prothomalo.com news website</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to simulate a high number of users connecting to ad-blocking servers simultaneously</t>
   </si>
   <si>
-    <t>tC_sYM_abs_006</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. connect to any ad blocking server 
+6. try to check the dynamic ad blocking</t>
   </si>
   <si>
-    <t>try to see ads the server no.2 for ads blocking server with cricinfo.com news website</t>
+    <t>one server should be coonected each time</t>
   </si>
   <si>
-    <t>tC_sYM_abs_007</t>
+    <t>check ad blocking on different devices</t>
   </si>
   <si>
-    <t>try to see ads the server no.3 for ads blocking server with bangla.bdnew24.com news website</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to check ad blocking on different devices</t>
   </si>
   <si>
-    <t>tC_sYM_abs_008</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page..
+6. try to Connect to an "ad blocking server" and visit websites known for displaying ads
+7. check user feedback for ad blocking</t>
   </si>
   <si>
-    <t>try to see ads the server no.3 for ads blocking server with prothomalo.com news website</t>
+    <t>TC_SYM_ABS_022</t>
   </si>
   <si>
-    <t>tC_sYM_abs_009</t>
+    <t>check the DNS leak</t>
   </si>
   <si>
-    <t>try to see ads the server no.3 for ads blocking server with cricinfo.com news website</t>
+    <t>1. go to the google play store and install symlexvpn on your device
+2. open the symlexvpn application once it's installed.
+3. login with credentials
+4. tap the login button
+5. navigate to the server list page. and connect to any server
+6. goto browser , check DNS leak on ip-score website</t>
   </si>
   <si>
-    <t>tC_sYM_abs_010</t>
+    <t>should not be leaked</t>
   </si>
   <si>
-    <t>tC_sYM_abs_011</t>
+    <t>favourite e click korle fav server list e add hocche naki</t>
   </si>
   <si>
-    <t>tC_sYM_abs_012</t>
+    <t>fav list theke remove korle ad block list theke remove hocche naki</t>
   </si>
   <si>
-    <t>tC_sYM_abs_013</t>
+    <t>dropdown kaaj kore naki</t>
   </si>
   <si>
-    <t>tC_sYM_abs_014</t>
-  </si>
-  <si>
-    <t>tC_sYM_abs_015</t>
-  </si>
-  <si>
-    <t>tC_sYM_abs_016</t>
-  </si>
-  <si>
-    <t>tC_sYM_abs_017</t>
-  </si>
-  <si>
-    <t>tC_sYM_abs_018</t>
-  </si>
-  <si>
-    <t>tC_sYM_abs_019</t>
-  </si>
-  <si>
-    <t>tC_sYM_abs_020</t>
-  </si>
-  <si>
-    <t>tC_sYM_abs_021</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>imoji, text, arrow sign tin ta tei click korle drop down hocche naki</t>
   </si>
 </sst>
 </file>
@@ -479,7 +509,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,8 +528,14 @@
         <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -597,11 +633,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -636,6 +685,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,6 +714,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,7 +1444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G24" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G29" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1598,8 +1662,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1616,15 +1680,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>46</v>
+      <c r="A1" s="16" t="s">
+        <v>32</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1646,13 +1710,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1675,16 +1739,16 @@
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -1717,19 +1781,19 @@
     </row>
     <row r="4" spans="1:26" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>5</v>
@@ -1759,19 +1823,19 @@
     </row>
     <row r="5" spans="1:26" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>5</v>
@@ -1801,19 +1865,19 @@
     </row>
     <row r="6" spans="1:26" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>5</v>
@@ -1841,19 +1905,19 @@
     </row>
     <row r="7" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>5</v>
@@ -1881,19 +1945,19 @@
     </row>
     <row r="8" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>5</v>
@@ -1921,19 +1985,19 @@
     </row>
     <row r="9" spans="1:26" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>5</v>
@@ -1961,19 +2025,19 @@
     </row>
     <row r="10" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>5</v>
@@ -2001,19 +2065,19 @@
     </row>
     <row r="11" spans="1:26" ht="156.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>5</v>
@@ -2041,19 +2105,19 @@
     </row>
     <row r="12" spans="1:26" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>5</v>
@@ -2081,7 +2145,7 @@
     </row>
     <row r="13" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>6</v>
@@ -2090,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>8</v>
@@ -2121,7 +2185,7 @@
     </row>
     <row r="14" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>6</v>
@@ -2130,7 +2194,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>10</v>
@@ -2161,7 +2225,7 @@
     </row>
     <row r="15" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>6</v>
@@ -2170,10 +2234,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>5</v>
@@ -2201,19 +2265,19 @@
     </row>
     <row r="16" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>5</v>
@@ -2241,19 +2305,19 @@
     </row>
     <row r="17" spans="1:26" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>5</v>
@@ -2281,22 +2345,22 @@
     </row>
     <row r="18" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
@@ -2321,19 +2385,19 @@
     </row>
     <row r="19" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>5</v>
@@ -2361,19 +2425,19 @@
     </row>
     <row r="20" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>5</v>
@@ -2399,21 +2463,21 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>5</v>
@@ -2441,19 +2505,19 @@
     </row>
     <row r="22" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>5</v>
@@ -2481,19 +2545,19 @@
     </row>
     <row r="23" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>5</v>
@@ -2521,22 +2585,22 @@
     </row>
     <row r="24" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>87</v>
+      <c r="F24" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
@@ -2559,14 +2623,26 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+    <row r="25" spans="1:26" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2588,13 +2664,15 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2616,13 +2694,15 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2644,13 +2724,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2672,13 +2754,15 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -29612,7 +29696,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F17 F19:F23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F17 F19:F25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{00000000-0002-0000-0000-000001000000}">
